--- a/Phase 2/Further analysis/200310_analysis_WEB_corpus.xlsx
+++ b/Phase 2/Further analysis/200310_analysis_WEB_corpus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Dropbox\Light\Doctorate\Data_and_scripts\Thesis_docs\Appendices\Phase 2\Further analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\Documents\GitHub\Appendices\Phase 2\Further analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E24F1B9-62C8-4247-9BE0-D3FB45BA75C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3715FF-5BC6-489B-B43E-C481D001665C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ext_diff_VTO" sheetId="10" r:id="rId1"/>
@@ -5430,7 +5430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -6562,7 +6562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2:P4"/>
     </sheetView>
   </sheetViews>
